--- a/Kode/Server2/Logs/LTE-node1/2020-05-23.xlsx
+++ b/Kode/Server2/Logs/LTE-node1/2020-05-23.xlsx
@@ -403,7 +403,7 @@
         <v>2.925</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04044689999999999</v>
+        <v>40.44689999999999</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.041448</v>
+        <v>41.448</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>2.97</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0411048</v>
+        <v>41.1048</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>2.955</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04088538000000001</v>
+        <v>40.88538000000001</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04149600000000001</v>
+        <v>41.49600000000001</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>2.955</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04092084000000001</v>
+        <v>40.92084000000001</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>2.94</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04072488</v>
+        <v>40.72488</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>2.925</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0404703</v>
+        <v>40.4703</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>2.955</v>
       </c>
       <c r="F10" t="n">
-        <v>0.040779</v>
+        <v>40.779</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>2.955</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04073172000000001</v>
+        <v>40.73172000000001</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>2.955</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04076718</v>
+        <v>40.76718</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>3.015</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0413658</v>
+        <v>41.3658</v>
       </c>
     </row>
     <row r="14">
@@ -643,7 +643,7 @@
         <v>3.03</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04134131999999999</v>
+        <v>41.34131999999999</v>
       </c>
     </row>
     <row r="15">
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04092</v>
+        <v>40.91999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -683,7 +683,7 @@
         <v>3.015</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04114872</v>
+        <v>41.14872</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>2.985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04084674000000001</v>
+        <v>40.84674000000001</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>2.955</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04055442</v>
+        <v>40.55442</v>
       </c>
     </row>
     <row r="19">
@@ -743,7 +743,7 @@
         <v>2.91</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03987864</v>
+        <v>39.87864</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>0.041112</v>
+        <v>41.112</v>
       </c>
     </row>
     <row r="21">
@@ -783,7 +783,7 @@
         <v>3.015</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04126932</v>
+        <v>41.26932</v>
       </c>
     </row>
     <row r="22">
@@ -803,7 +803,7 @@
         <v>3.045</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04161906000000001</v>
+        <v>41.61906000000001</v>
       </c>
     </row>
     <row r="23">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>0.040908</v>
+        <v>40.908</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>2.97</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04036824</v>
+        <v>40.36824</v>
       </c>
     </row>
     <row r="25">
@@ -863,7 +863,7 @@
         <v>2.94</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03996048000000001</v>
+        <v>39.96048</v>
       </c>
     </row>
     <row r="26">
@@ -883,7 +883,7 @@
         <v>2.985</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0405363</v>
+        <v>40.5363</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +903,7 @@
         <v>3.06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04154256</v>
+        <v>41.54256</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>3.015</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04089545999999999</v>
+        <v>40.89545999999999</v>
       </c>
     </row>
     <row r="29">
@@ -943,7 +943,7 @@
         <v>2.97</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0402732</v>
+        <v>40.2732</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
         <v>2.97</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04020192</v>
+        <v>40.20192</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +983,7 @@
         <v>3.045</v>
       </c>
       <c r="F31" t="n">
-        <v>0.04107096</v>
+        <v>41.07096</v>
       </c>
     </row>
     <row r="32">
@@ -1003,7 +1003,7 @@
         <v>3.06</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04111416</v>
+        <v>41.11416</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         <v>3.015</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04041305999999999</v>
+        <v>40.41305999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1043,7 +1043,7 @@
         <v>3.015</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04029246</v>
+        <v>40.29246000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1063,7 +1063,7 @@
         <v>3.06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04078368</v>
+        <v>40.78368</v>
       </c>
     </row>
     <row r="36">
@@ -1083,7 +1083,7 @@
         <v>3.015</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04014774</v>
+        <v>40.14774</v>
       </c>
     </row>
     <row r="37">
@@ -1103,7 +1103,7 @@
         <v>3.06</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04071024</v>
+        <v>40.71024</v>
       </c>
     </row>
     <row r="38">
@@ -1123,7 +1123,7 @@
         <v>3.015</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0400995</v>
+        <v>40.09950000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1143,7 +1143,7 @@
         <v>3.045</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04048632</v>
+        <v>40.48632</v>
       </c>
     </row>
     <row r="40">
@@ -1163,7 +1163,7 @@
         <v>3.06</v>
       </c>
       <c r="F40" t="n">
-        <v>0.040698</v>
+        <v>40.698</v>
       </c>
     </row>
     <row r="41">
@@ -1183,7 +1183,7 @@
         <v>3.015</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04012362</v>
+        <v>40.12362</v>
       </c>
     </row>
     <row r="42">
@@ -1203,7 +1203,7 @@
         <v>3.03</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04028688</v>
+        <v>40.28688</v>
       </c>
     </row>
     <row r="43">
@@ -1223,7 +1223,7 @@
         <v>3.06</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04061232000000001</v>
+        <v>40.61232</v>
       </c>
     </row>
     <row r="44">
@@ -1243,7 +1243,7 @@
         <v>3.06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04050216</v>
+        <v>40.50216</v>
       </c>
     </row>
     <row r="45">
@@ -1263,7 +1263,7 @@
         <v>3.075</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0405285</v>
+        <v>40.5285</v>
       </c>
     </row>
     <row r="46">
@@ -1283,7 +1283,7 @@
         <v>3.075</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0403809</v>
+        <v>40.3809</v>
       </c>
     </row>
     <row r="47">
@@ -1303,7 +1303,7 @@
         <v>3.075</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04029480000000001</v>
+        <v>40.29480000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1323,7 +1323,7 @@
         <v>3.06</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04006152</v>
+        <v>40.06152</v>
       </c>
     </row>
     <row r="49">
@@ -1343,7 +1343,7 @@
         <v>3.06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04017168</v>
+        <v>40.17168</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
         <v>3.06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.04035528</v>
+        <v>40.35528</v>
       </c>
     </row>
     <row r="51">
@@ -1383,7 +1383,7 @@
         <v>3.06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04048992000000001</v>
+        <v>40.48992000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1403,7 +1403,7 @@
         <v>3.03</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0402384</v>
+        <v>40.2384</v>
       </c>
     </row>
     <row r="53">
@@ -1423,7 +1423,7 @@
         <v>3.03</v>
       </c>
       <c r="F53" t="n">
-        <v>0.04034748</v>
+        <v>40.34748</v>
       </c>
     </row>
     <row r="54">
@@ -1443,7 +1443,7 @@
         <v>3.045</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04066901999999999</v>
+        <v>40.66902</v>
       </c>
     </row>
     <row r="55">
@@ -1463,7 +1463,7 @@
         <v>3.015</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04041305999999999</v>
+        <v>40.41305999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1483,7 +1483,7 @@
         <v>3.045</v>
       </c>
       <c r="F56" t="n">
-        <v>0.04093698</v>
+        <v>40.93698</v>
       </c>
     </row>
     <row r="57">
@@ -1503,7 +1503,7 @@
         <v>3.015</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0406422</v>
+        <v>40.6422</v>
       </c>
     </row>
     <row r="58">
@@ -1523,7 +1523,7 @@
         <v>3.03</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04091711999999999</v>
+        <v>40.91711999999999</v>
       </c>
     </row>
     <row r="59">
@@ -1543,7 +1543,7 @@
         <v>3.015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04072662</v>
+        <v>40.72662</v>
       </c>
     </row>
     <row r="60">
@@ -1563,7 +1563,7 @@
         <v>3.015</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0407025</v>
+        <v>40.7025</v>
       </c>
     </row>
     <row r="61">
@@ -1583,7 +1583,7 @@
         <v>3.03</v>
       </c>
       <c r="F61" t="n">
-        <v>0.04086864</v>
+        <v>40.86864</v>
       </c>
     </row>
     <row r="62">
@@ -1603,7 +1603,7 @@
         <v>2.985</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04044078</v>
+        <v>40.44078</v>
       </c>
     </row>
     <row r="63">
@@ -1623,7 +1623,7 @@
         <v>3.045</v>
       </c>
       <c r="F63" t="n">
-        <v>0.04109532</v>
+        <v>41.09532</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1643,7 @@
         <v>2.955</v>
       </c>
       <c r="F64" t="n">
-        <v>0.04022346</v>
+        <v>40.22346</v>
       </c>
     </row>
     <row r="65">
@@ -1663,7 +1663,7 @@
         <v>2.985</v>
       </c>
       <c r="F65" t="n">
-        <v>0.04141986</v>
+        <v>41.41986</v>
       </c>
     </row>
     <row r="66">
@@ -1683,7 +1683,7 @@
         <v>2.955</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04140546000000001</v>
+        <v>41.40546000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1703,7 +1703,7 @@
         <v>2.94</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04126584</v>
+        <v>41.26584</v>
       </c>
     </row>
     <row r="68">
@@ -1723,7 +1723,7 @@
         <v>2.94</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0406896</v>
+        <v>40.6896</v>
       </c>
     </row>
     <row r="69">
@@ -1743,7 +1743,7 @@
         <v>3.03</v>
       </c>
       <c r="F69" t="n">
-        <v>0.04137768</v>
+        <v>41.37768</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>3.03</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04149888</v>
+        <v>41.49888</v>
       </c>
     </row>
     <row r="71">
@@ -1783,7 +1783,7 @@
         <v>2.985</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04103778</v>
+        <v>41.03778000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1803,7 +1803,7 @@
         <v>2.955</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04093266</v>
+        <v>40.93266000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1823,7 +1823,7 @@
         <v>2.985</v>
       </c>
       <c r="F73" t="n">
-        <v>0.04121688</v>
+        <v>41.21688</v>
       </c>
     </row>
     <row r="74">
@@ -1843,7 +1843,7 @@
         <v>2.97</v>
       </c>
       <c r="F74" t="n">
-        <v>0.04099787999999999</v>
+        <v>40.99787999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>2.985</v>
       </c>
       <c r="F75" t="n">
-        <v>0.04109748</v>
+        <v>41.09748</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1883,7 @@
         <v>2.985</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04094226</v>
+        <v>40.94226</v>
       </c>
     </row>
     <row r="77">
@@ -1903,7 +1903,7 @@
         <v>3.015</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0412452</v>
+        <v>41.2452</v>
       </c>
     </row>
     <row r="78">
@@ -1923,7 +1923,7 @@
         <v>3.045</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04185048</v>
+        <v>41.85048</v>
       </c>
     </row>
     <row r="79">
@@ -1943,7 +1943,7 @@
         <v>2.955</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04076718</v>
+        <v>40.76718</v>
       </c>
     </row>
     <row r="80">
@@ -1963,7 +1963,7 @@
         <v>2.985</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0413124</v>
+        <v>41.3124</v>
       </c>
     </row>
     <row r="81">
@@ -1983,7 +1983,7 @@
         <v>2.97</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04137804</v>
+        <v>41.37804</v>
       </c>
     </row>
     <row r="82">
@@ -2003,7 +2003,7 @@
         <v>2.985</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04158702</v>
+        <v>41.58702</v>
       </c>
     </row>
     <row r="83">
@@ -2023,7 +2023,7 @@
         <v>2.985</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04157508</v>
+        <v>41.57508</v>
       </c>
     </row>
     <row r="84">
@@ -2043,7 +2043,7 @@
         <v>2.97</v>
       </c>
       <c r="F84" t="n">
-        <v>0.04131864</v>
+        <v>41.31863999999999</v>
       </c>
     </row>
     <row r="85">
@@ -2063,7 +2063,7 @@
         <v>2.97</v>
       </c>
       <c r="F85" t="n">
-        <v>0.04147308</v>
+        <v>41.47308</v>
       </c>
     </row>
     <row r="86">
@@ -2083,7 +2083,7 @@
         <v>2.91</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0409146</v>
+        <v>40.9146</v>
       </c>
     </row>
     <row r="87">
@@ -2103,7 +2103,7 @@
         <v>2.895</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0408774</v>
+        <v>40.8774</v>
       </c>
     </row>
     <row r="88">
@@ -2123,7 +2123,7 @@
         <v>2.91</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04112412</v>
+        <v>41.12412</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>0.040752</v>
+        <v>40.752</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>3.045</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04088826</v>
+        <v>40.88826</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>3.06</v>
       </c>
       <c r="F91" t="n">
-        <v>0.04093056</v>
+        <v>40.93056</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>3.075</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0407007</v>
+        <v>40.7007</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>3.03</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04034748</v>
+        <v>40.34748</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>0.040704</v>
+        <v>40.704</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>2.985</v>
       </c>
       <c r="F95" t="n">
-        <v>0.04094226</v>
+        <v>40.94226</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>3.015</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04126932</v>
+        <v>41.26932</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>2.91</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04071672</v>
+        <v>40.71672</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>2.955</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04088538000000001</v>
+        <v>40.88538000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>2.97</v>
       </c>
       <c r="F99" t="n">
-        <v>0.04077215999999999</v>
+        <v>40.77215999999999</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>2.97</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04032072</v>
+        <v>40.32071999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>3.03</v>
       </c>
       <c r="F101" t="n">
-        <v>0.04111103999999999</v>
+        <v>41.11103999999999</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>3.03</v>
       </c>
       <c r="F102" t="n">
-        <v>0.04101407999999999</v>
+        <v>41.01407999999999</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>3.045</v>
       </c>
       <c r="F103" t="n">
-        <v>0.04118058</v>
+        <v>41.18058</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>0.040608</v>
+        <v>40.608</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>3.03</v>
       </c>
       <c r="F105" t="n">
-        <v>0.04124436</v>
+        <v>41.24436</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>3.03</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0411474</v>
+        <v>41.1474</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04044</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>3.075</v>
       </c>
       <c r="F108" t="n">
-        <v>0.04114349999999999</v>
+        <v>41.1435</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>3.075</v>
       </c>
       <c r="F109" t="n">
-        <v>0.040836</v>
+        <v>40.836</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>3.105</v>
       </c>
       <c r="F110" t="n">
-        <v>0.04099842</v>
+        <v>40.99842</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>3.075</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0404055</v>
+        <v>40.4055</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>3.06</v>
       </c>
       <c r="F112" t="n">
-        <v>0.04033079999999999</v>
+        <v>40.3308</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>3.075</v>
       </c>
       <c r="F113" t="n">
-        <v>0.04066379999999999</v>
+        <v>40.66379999999999</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>3.045</v>
       </c>
       <c r="F114" t="n">
-        <v>0.04075428</v>
+        <v>40.75427999999999</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="F115" t="n">
-        <v>0.04077600000000001</v>
+        <v>40.776</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>3.015</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0411246</v>
+        <v>41.12459999999999</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>0.040704</v>
+        <v>40.704</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>3.03</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0410868</v>
+        <v>41.0868</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>3.03</v>
       </c>
       <c r="F119" t="n">
-        <v>0.04125648</v>
+        <v>41.25648</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>2.985</v>
       </c>
       <c r="F120" t="n">
-        <v>0.04114524</v>
+        <v>41.14524</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>2.955</v>
       </c>
       <c r="F121" t="n">
-        <v>0.04165368</v>
+        <v>41.65368</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>2.97</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0411048</v>
+        <v>41.1048</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>3.045</v>
       </c>
       <c r="F123" t="n">
-        <v>0.04082736</v>
+        <v>40.82736</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>3.075</v>
       </c>
       <c r="F124" t="n">
-        <v>0.04114349999999999</v>
+        <v>41.1435</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>3.045</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0409857</v>
+        <v>40.9857</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>3.045</v>
       </c>
       <c r="F126" t="n">
-        <v>0.04157034</v>
+        <v>41.57033999999999</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>3.03</v>
       </c>
       <c r="F127" t="n">
-        <v>0.04055352</v>
+        <v>40.55352000000001</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>3.06</v>
       </c>
       <c r="F128" t="n">
-        <v>0.04095504000000001</v>
+        <v>40.95504000000001</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>3.06</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0407592</v>
+        <v>40.7592</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>3.075</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0409467</v>
+        <v>40.9467</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>3.06</v>
       </c>
       <c r="F131" t="n">
-        <v>0.04067352</v>
+        <v>40.67352</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>3.06</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04064904</v>
+        <v>40.64904</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>3.06</v>
       </c>
       <c r="F133" t="n">
-        <v>0.04047768</v>
+        <v>40.47768</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>3.075</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0408237</v>
+        <v>40.8237</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>3.06</v>
       </c>
       <c r="F135" t="n">
-        <v>0.04089384000000001</v>
+        <v>40.89384</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>3.06</v>
       </c>
       <c r="F136" t="n">
-        <v>0.04079592</v>
+        <v>40.79592</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>3.045</v>
       </c>
       <c r="F137" t="n">
-        <v>0.04027926</v>
+        <v>40.27926</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>3.075</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0405531</v>
+        <v>40.5531</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>3.075</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0406884</v>
+        <v>40.6884</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>3.045</v>
       </c>
       <c r="F140" t="n">
-        <v>0.04036452</v>
+        <v>40.36452</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>3.045</v>
       </c>
       <c r="F141" t="n">
-        <v>0.04042542</v>
+        <v>40.42542</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>3.045</v>
       </c>
       <c r="F142" t="n">
-        <v>0.04071774</v>
+        <v>40.71774</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>3.045</v>
       </c>
       <c r="F143" t="n">
-        <v>0.04068119999999999</v>
+        <v>40.68119999999999</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>3.045</v>
       </c>
       <c r="F144" t="n">
-        <v>0.04051068</v>
+        <v>40.51068</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>3.03</v>
       </c>
       <c r="F145" t="n">
-        <v>0.04089288</v>
+        <v>40.89288</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>2.88</v>
       </c>
       <c r="F146" t="n">
-        <v>0.04070016</v>
+        <v>40.70016</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>2.925</v>
       </c>
       <c r="F147" t="n">
-        <v>0.04109039999999999</v>
+        <v>41.0904</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>3.105</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0421038</v>
+        <v>42.1038</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>3.075</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0405039</v>
+        <v>40.5039</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>3.12</v>
       </c>
       <c r="F150" t="n">
-        <v>0.04088448</v>
+        <v>40.88448</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>3.12</v>
       </c>
       <c r="F151" t="n">
-        <v>0.04078464</v>
+        <v>40.78464</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>3.075</v>
       </c>
       <c r="F152" t="n">
-        <v>0.04018409999999999</v>
+        <v>40.18409999999999</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>3.105</v>
       </c>
       <c r="F153" t="n">
-        <v>0.04062582</v>
+        <v>40.62582</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>3.09</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0404172</v>
+        <v>40.4172</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>3.105</v>
       </c>
       <c r="F155" t="n">
-        <v>0.04063824000000001</v>
+        <v>40.63824000000001</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>3.09</v>
       </c>
       <c r="F156" t="n">
-        <v>0.04028124</v>
+        <v>40.28124</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>3.09</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0402936</v>
+        <v>40.2936</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>3.105</v>
       </c>
       <c r="F158" t="n">
-        <v>0.04051404</v>
+        <v>40.51404</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>3.09</v>
       </c>
       <c r="F159" t="n">
-        <v>0.04013292</v>
+        <v>40.13292000000001</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>3.15</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0405468</v>
+        <v>40.5468</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>3.135</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0400653</v>
+        <v>40.0653</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>3.105</v>
       </c>
       <c r="F162" t="n">
-        <v>0.04004208000000001</v>
+        <v>40.04208000000001</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>3.105</v>
       </c>
       <c r="F163" t="n">
-        <v>0.04036500000000001</v>
+        <v>40.36500000000001</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>3.075</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0403809</v>
+        <v>40.3809</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>3.03</v>
       </c>
       <c r="F165" t="n">
-        <v>0.04018992</v>
+        <v>40.18991999999999</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>3.045</v>
       </c>
       <c r="F166" t="n">
-        <v>0.04071774</v>
+        <v>40.71774</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>2.91</v>
       </c>
       <c r="F167" t="n">
-        <v>0.04082147999999999</v>
+        <v>40.82147999999999</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>2.91</v>
       </c>
       <c r="F168" t="n">
-        <v>0.04156644</v>
+        <v>41.56644</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>2.985</v>
       </c>
       <c r="F169" t="n">
-        <v>0.04211238</v>
+        <v>42.11237999999999</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>3.03</v>
       </c>
       <c r="F170" t="n">
-        <v>0.04191096</v>
+        <v>41.91096</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>3.075</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0415494</v>
+        <v>41.5494</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>3.06</v>
       </c>
       <c r="F172" t="n">
-        <v>0.04150584</v>
+        <v>41.50584</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>2.985</v>
       </c>
       <c r="F173" t="n">
-        <v>0.04120494</v>
+        <v>41.20494</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>3.09</v>
       </c>
       <c r="F174" t="n">
-        <v>0.04258020000000001</v>
+        <v>42.58020000000001</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="F175" t="n">
-        <v>0.04135200000000001</v>
+        <v>41.352</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>3.21</v>
       </c>
       <c r="F176" t="n">
-        <v>0.040767</v>
+        <v>40.767</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>3.195</v>
       </c>
       <c r="F177" t="n">
-        <v>0.04024422</v>
+        <v>40.24422</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>3.21</v>
       </c>
       <c r="F178" t="n">
-        <v>0.04011216</v>
+        <v>40.11216</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>3.225</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0400416</v>
+        <v>40.0416</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>3.24</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0402408</v>
+        <v>40.2408</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>3.195</v>
       </c>
       <c r="F181" t="n">
-        <v>0.04001418</v>
+        <v>40.01418</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>3.18</v>
       </c>
       <c r="F182" t="n">
-        <v>0.040068</v>
+        <v>40.068</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>3.135</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0398772</v>
+        <v>39.8772</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>3.135</v>
       </c>
       <c r="F184" t="n">
-        <v>0.04029102</v>
+        <v>40.29102</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>3.105</v>
       </c>
       <c r="F185" t="n">
-        <v>0.04019112</v>
+        <v>40.19112</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>3.09</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0400464</v>
+        <v>40.04640000000001</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>3.105</v>
       </c>
       <c r="F187" t="n">
-        <v>0.04015386</v>
+        <v>40.15386</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>3.135</v>
       </c>
       <c r="F188" t="n">
-        <v>0.04067976</v>
+        <v>40.67976</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>3.075</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0401718</v>
+        <v>40.1718</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>3.06</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0404532</v>
+        <v>40.4532</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="F191" t="n">
-        <v>0.04134</v>
+        <v>41.34</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>2.97</v>
       </c>
       <c r="F192" t="n">
-        <v>0.04160376</v>
+        <v>41.60375999999999</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>3.06</v>
       </c>
       <c r="F193" t="n">
-        <v>0.04074696</v>
+        <v>40.74696</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>3.075</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0403809</v>
+        <v>40.3809</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>3.105</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0407997</v>
+        <v>40.7997</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="F196" t="n">
-        <v>0.04038</v>
+        <v>40.38</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>2.94</v>
       </c>
       <c r="F197" t="n">
-        <v>0.04146576</v>
+        <v>41.46576</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>2.97</v>
       </c>
       <c r="F198" t="n">
-        <v>0.04144931999999999</v>
+        <v>41.44931999999999</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>3.015</v>
       </c>
       <c r="F199" t="n">
-        <v>0.04164318</v>
+        <v>41.64318</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>3</v>
       </c>
       <c r="F200" t="n">
-        <v>0.041136</v>
+        <v>41.136</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>3.075</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0419184</v>
+        <v>41.9184</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>3.075</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0417462</v>
+        <v>41.74619999999999</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>3.045</v>
       </c>
       <c r="F203" t="n">
-        <v>0.04143636</v>
+        <v>41.43636</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>3.015</v>
       </c>
       <c r="F204" t="n">
-        <v>0.04114872</v>
+        <v>41.14872</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>2.985</v>
       </c>
       <c r="F205" t="n">
-        <v>0.04067958</v>
+        <v>40.67958</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>3.225</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0407382</v>
+        <v>40.7382</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>3.345</v>
       </c>
       <c r="F207" t="n">
-        <v>0.03968508</v>
+        <v>39.68508</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>3.315</v>
       </c>
       <c r="F208" t="n">
-        <v>0.03983304</v>
+        <v>39.83304</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>3.255</v>
       </c>
       <c r="F209" t="n">
-        <v>0.04006254</v>
+        <v>40.06254</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>3.105</v>
       </c>
       <c r="F210" t="n">
-        <v>0.04066308</v>
+        <v>40.66308</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>3.195</v>
       </c>
       <c r="F211" t="n">
-        <v>0.04009086</v>
+        <v>40.09086</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>3.165</v>
       </c>
       <c r="F212" t="n">
-        <v>0.03979038000000001</v>
+        <v>39.79038000000001</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>3.165</v>
       </c>
       <c r="F213" t="n">
-        <v>0.03982835999999999</v>
+        <v>39.82836</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>3.165</v>
       </c>
       <c r="F214" t="n">
-        <v>0.03980304</v>
+        <v>39.80304</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>3.195</v>
       </c>
       <c r="F215" t="n">
-        <v>0.04015476</v>
+        <v>40.15476</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>3.15</v>
       </c>
       <c r="F216" t="n">
-        <v>0.03979079999999999</v>
+        <v>39.79079999999999</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>3.165</v>
       </c>
       <c r="F217" t="n">
-        <v>0.04003092</v>
+        <v>40.03091999999999</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>3.165</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0403221</v>
+        <v>40.3221</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>2.985</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0411333</v>
+        <v>41.1333</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>2.97</v>
       </c>
       <c r="F220" t="n">
-        <v>0.04099787999999999</v>
+        <v>40.99787999999999</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>3.045</v>
       </c>
       <c r="F221" t="n">
-        <v>0.04097352</v>
+        <v>40.97352</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>3.195</v>
       </c>
       <c r="F222" t="n">
-        <v>0.03995028</v>
+        <v>39.95028</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>3.195</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0401292</v>
+        <v>40.1292</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>3.105</v>
       </c>
       <c r="F224" t="n">
-        <v>0.04084938</v>
+        <v>40.84938</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>3.09</v>
       </c>
       <c r="F225" t="n">
-        <v>0.040788</v>
+        <v>40.788</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>3.21</v>
       </c>
       <c r="F226" t="n">
-        <v>0.04011216</v>
+        <v>40.11216</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>3.21</v>
       </c>
       <c r="F227" t="n">
-        <v>0.04000944</v>
+        <v>40.00944</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>3.18</v>
       </c>
       <c r="F228" t="n">
-        <v>0.03997896</v>
+        <v>39.97896</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>3.075</v>
       </c>
       <c r="F229" t="n">
-        <v>0.04056539999999999</v>
+        <v>40.56539999999999</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>3.225</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0398739</v>
+        <v>39.8739</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>3.165</v>
       </c>
       <c r="F231" t="n">
-        <v>0.03949920000000001</v>
+        <v>39.49920000000001</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>3.105</v>
       </c>
       <c r="F232" t="n">
-        <v>0.04072518</v>
+        <v>40.72518</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>3.27</v>
       </c>
       <c r="F233" t="n">
-        <v>0.03986784</v>
+        <v>39.86784</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>3.255</v>
       </c>
       <c r="F234" t="n">
-        <v>0.03976308</v>
+        <v>39.76308</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>2.985</v>
       </c>
       <c r="F235" t="n">
-        <v>0.04072734</v>
+        <v>40.72734</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="F236" t="n">
-        <v>0.041304</v>
+        <v>41.304</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>3.09</v>
       </c>
       <c r="F237" t="n">
-        <v>0.040788</v>
+        <v>40.788</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>3.375</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0392985</v>
+        <v>39.2985</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>3.39</v>
       </c>
       <c r="F239" t="n">
-        <v>0.03929688</v>
+        <v>39.29688</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>3.36</v>
       </c>
       <c r="F240" t="n">
-        <v>0.03921792</v>
+        <v>39.21792000000001</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>3.36</v>
       </c>
       <c r="F241" t="n">
-        <v>0.03940608</v>
+        <v>39.40608</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>3.33</v>
       </c>
       <c r="F242" t="n">
-        <v>0.03952044</v>
+        <v>39.52043999999999</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>3.075</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0407991</v>
+        <v>40.7991</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>2.97</v>
       </c>
       <c r="F244" t="n">
-        <v>0.04098599999999999</v>
+        <v>40.98599999999999</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>2.985</v>
       </c>
       <c r="F245" t="n">
-        <v>0.04094226</v>
+        <v>40.94226</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>3.045</v>
       </c>
       <c r="F246" t="n">
-        <v>0.04077864</v>
+        <v>40.77864</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>3.075</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0407499</v>
+        <v>40.7499</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>3.24</v>
       </c>
       <c r="F248" t="n">
-        <v>0.04034448</v>
+        <v>40.34448</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>3.36</v>
       </c>
       <c r="F249" t="n">
-        <v>0.03948672</v>
+        <v>39.48672000000001</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>3.33</v>
       </c>
       <c r="F250" t="n">
-        <v>0.03945384</v>
+        <v>39.45384</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>3.165</v>
       </c>
       <c r="F251" t="n">
-        <v>0.03996762</v>
+        <v>39.96762</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>3.255</v>
       </c>
       <c r="F252" t="n">
-        <v>0.03972402000000001</v>
+        <v>39.72402000000001</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>3.3</v>
       </c>
       <c r="F253" t="n">
-        <v>0.0398376</v>
+        <v>39.8376</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>3.3</v>
       </c>
       <c r="F254" t="n">
-        <v>0.03974519999999999</v>
+        <v>39.74519999999999</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>3.24</v>
       </c>
       <c r="F255" t="n">
-        <v>0.03937248</v>
+        <v>39.37248</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>3.135</v>
       </c>
       <c r="F256" t="n">
-        <v>0.04040388</v>
+        <v>40.40388</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>2.97</v>
       </c>
       <c r="F257" t="n">
-        <v>0.04048703999999999</v>
+        <v>40.48703999999999</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>3.24</v>
       </c>
       <c r="F258" t="n">
-        <v>0.04042224000000001</v>
+        <v>40.42224000000001</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>3.27</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0400248</v>
+        <v>40.0248</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>3.33</v>
       </c>
       <c r="F260" t="n">
-        <v>0.03938724</v>
+        <v>39.38724</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>3.435</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0395025</v>
+        <v>39.5025</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>3.435</v>
       </c>
       <c r="F262" t="n">
-        <v>0.03928266</v>
+        <v>39.28266</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>3.435</v>
       </c>
       <c r="F263" t="n">
-        <v>0.03965364</v>
+        <v>39.65364</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>3.33</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0390942</v>
+        <v>39.0942</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>3.33</v>
       </c>
       <c r="F265" t="n">
-        <v>0.03961368000000001</v>
+        <v>39.61368000000001</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>3.33</v>
       </c>
       <c r="F266" t="n">
-        <v>0.03945384</v>
+        <v>39.45384</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>3.33</v>
       </c>
       <c r="F267" t="n">
-        <v>0.03954708</v>
+        <v>39.54708</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>3.27</v>
       </c>
       <c r="F268" t="n">
-        <v>0.03947544000000001</v>
+        <v>39.47544000000001</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>3.27</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0393054</v>
+        <v>39.3054</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>3.36</v>
       </c>
       <c r="F270" t="n">
-        <v>0.03972864</v>
+        <v>39.72864000000001</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>3.33</v>
       </c>
       <c r="F271" t="n">
-        <v>0.0392274</v>
+        <v>39.2274</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>3.36</v>
       </c>
       <c r="F272" t="n">
-        <v>0.03950016</v>
+        <v>39.50016</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>3.3</v>
       </c>
       <c r="F273" t="n">
-        <v>0.039072</v>
+        <v>39.072</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>3.345</v>
       </c>
       <c r="F274" t="n">
-        <v>0.03936396</v>
+        <v>39.36396000000001</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>3.375</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0398925</v>
+        <v>39.8925</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>3.15</v>
       </c>
       <c r="F276" t="n">
-        <v>0.040635</v>
+        <v>40.635</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="F277" t="n">
-        <v>0.04063200000000001</v>
+        <v>40.63200000000001</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>3.15</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0404334</v>
+        <v>40.4334</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="F279" t="n">
-        <v>0.040752</v>
+        <v>40.752</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>3.03</v>
       </c>
       <c r="F280" t="n">
-        <v>0.04095348</v>
+        <v>40.95348</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>3.03</v>
       </c>
       <c r="F281" t="n">
-        <v>0.040905</v>
+        <v>40.90499999999999</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>3.045</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0410466</v>
+        <v>41.04660000000001</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>3.03</v>
       </c>
       <c r="F283" t="n">
-        <v>0.04075956</v>
+        <v>40.75956</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>3.045</v>
       </c>
       <c r="F284" t="n">
-        <v>0.04072992</v>
+        <v>40.72992</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>3.105</v>
       </c>
       <c r="F285" t="n">
-        <v>0.04107294</v>
+        <v>41.07294</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>3.225</v>
       </c>
       <c r="F286" t="n">
-        <v>0.04072530000000001</v>
+        <v>40.72530000000001</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>3.285</v>
       </c>
       <c r="F287" t="n">
-        <v>0.03978792</v>
+        <v>39.78792</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>3.105</v>
       </c>
       <c r="F288" t="n">
-        <v>0.04050162</v>
+        <v>40.50162</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>3.465</v>
       </c>
       <c r="F289" t="n">
-        <v>0.03925152</v>
+        <v>39.25152</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>3.525</v>
       </c>
       <c r="F290" t="n">
-        <v>0.039057</v>
+        <v>39.057</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>3.525</v>
       </c>
       <c r="F291" t="n">
-        <v>0.039198</v>
+        <v>39.19799999999999</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>3.465</v>
       </c>
       <c r="F292" t="n">
-        <v>0.03873869999999999</v>
+        <v>38.73869999999999</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>3.48</v>
       </c>
       <c r="F293" t="n">
-        <v>0.03907344</v>
+        <v>39.07344</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>3.465</v>
       </c>
       <c r="F294" t="n">
-        <v>0.03893274</v>
+        <v>38.93274</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>3.495</v>
       </c>
       <c r="F295" t="n">
-        <v>0.03922788</v>
+        <v>39.22788</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>3.45</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0386676</v>
+        <v>38.6676</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>3.495</v>
       </c>
       <c r="F297" t="n">
-        <v>0.03931176</v>
+        <v>39.31176</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>3.42</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0388512</v>
+        <v>38.85120000000001</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>3.465</v>
       </c>
       <c r="F299" t="n">
-        <v>0.0397089</v>
+        <v>39.7089</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>3.39</v>
       </c>
       <c r="F300" t="n">
-        <v>0.03922908</v>
+        <v>39.22908</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>3.33</v>
       </c>
       <c r="F301" t="n">
-        <v>0.03872124</v>
+        <v>38.72123999999999</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>3.33</v>
       </c>
       <c r="F302" t="n">
-        <v>0.03877452</v>
+        <v>38.77452</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>3.375</v>
       </c>
       <c r="F303" t="n">
-        <v>0.03932550000000001</v>
+        <v>39.32550000000001</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>3.39</v>
       </c>
       <c r="F304" t="n">
-        <v>0.03958164</v>
+        <v>39.58164</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>3.39</v>
       </c>
       <c r="F305" t="n">
-        <v>0.03975792</v>
+        <v>39.75792</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>3.375</v>
       </c>
       <c r="F306" t="n">
-        <v>0.039933</v>
+        <v>39.933</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>3.27</v>
       </c>
       <c r="F307" t="n">
-        <v>0.03916152000000001</v>
+        <v>39.16152000000001</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>3.24</v>
       </c>
       <c r="F308" t="n">
-        <v>0.03930768</v>
+        <v>39.30768</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>3.195</v>
       </c>
       <c r="F309" t="n">
-        <v>0.0392985</v>
+        <v>39.2985</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>3.21</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0400608</v>
+        <v>40.0608</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>3.135</v>
       </c>
       <c r="F311" t="n">
-        <v>0.04070484</v>
+        <v>40.70484</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>3.03</v>
       </c>
       <c r="F312" t="n">
-        <v>0.04151100000000001</v>
+        <v>41.51100000000001</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="F313" t="n">
-        <v>0.041088</v>
+        <v>41.088</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>3</v>
       </c>
       <c r="F314" t="n">
-        <v>0.040908</v>
+        <v>40.908</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>3.03</v>
       </c>
       <c r="F315" t="n">
-        <v>0.04119588</v>
+        <v>41.19588</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>3</v>
       </c>
       <c r="F316" t="n">
-        <v>0.040716</v>
+        <v>40.716</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>2.97</v>
       </c>
       <c r="F317" t="n">
-        <v>0.0403326</v>
+        <v>40.33260000000001</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>3.045</v>
       </c>
       <c r="F318" t="n">
-        <v>0.0413511</v>
+        <v>41.3511</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>3.03</v>
       </c>
       <c r="F319" t="n">
-        <v>0.04103832</v>
+        <v>41.03832000000001</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>3.045</v>
       </c>
       <c r="F320" t="n">
-        <v>0.04111968</v>
+        <v>41.11968</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>3.03</v>
       </c>
       <c r="F321" t="n">
-        <v>0.04092924</v>
+        <v>40.92924</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>3.015</v>
       </c>
       <c r="F322" t="n">
-        <v>0.04069043999999999</v>
+        <v>40.69043999999999</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>3.075</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0415002</v>
+        <v>41.5002</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>3.015</v>
       </c>
       <c r="F324" t="n">
-        <v>0.04073867999999999</v>
+        <v>40.73868</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>3.015</v>
       </c>
       <c r="F325" t="n">
-        <v>0.04072662</v>
+        <v>40.72662</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>3.03</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0409656</v>
+        <v>40.96559999999999</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>3.03</v>
       </c>
       <c r="F327" t="n">
-        <v>0.04091711999999999</v>
+        <v>40.91711999999999</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>3.03</v>
       </c>
       <c r="F328" t="n">
-        <v>0.04085651999999999</v>
+        <v>40.85652</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>3.015</v>
       </c>
       <c r="F329" t="n">
-        <v>0.04061807999999999</v>
+        <v>40.61807999999998</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>3.015</v>
       </c>
       <c r="F330" t="n">
-        <v>0.04053366</v>
+        <v>40.53366</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>3.06</v>
       </c>
       <c r="F331" t="n">
-        <v>0.04104072</v>
+        <v>41.04072</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>3.015</v>
       </c>
       <c r="F332" t="n">
-        <v>0.04020803999999999</v>
+        <v>40.20803999999999</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>3.075</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0406023</v>
+        <v>40.6023</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>3.09</v>
       </c>
       <c r="F334" t="n">
-        <v>0.04076328</v>
+        <v>40.76328</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>3.075</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0407007</v>
+        <v>40.7007</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>3.075</v>
       </c>
       <c r="F336" t="n">
-        <v>0.0405285</v>
+        <v>40.5285</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>3.105</v>
       </c>
       <c r="F337" t="n">
-        <v>0.04060098</v>
+        <v>40.60098</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>3.06</v>
       </c>
       <c r="F338" t="n">
-        <v>0.04046544</v>
+        <v>40.46544</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>3.045</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0403767</v>
+        <v>40.3767</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>3.06</v>
       </c>
       <c r="F340" t="n">
-        <v>0.04044096</v>
+        <v>40.44096</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>3.09</v>
       </c>
       <c r="F341" t="n">
-        <v>0.0402318</v>
+        <v>40.2318</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>3.09</v>
       </c>
       <c r="F342" t="n">
-        <v>0.04052844</v>
+        <v>40.52844</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>3.12</v>
       </c>
       <c r="F343" t="n">
-        <v>0.04041024</v>
+        <v>40.41024</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>3.075</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0402579</v>
+        <v>40.2579</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>3.09</v>
       </c>
       <c r="F345" t="n">
-        <v>0.04007112</v>
+        <v>40.07112</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>3.18</v>
       </c>
       <c r="F346" t="n">
-        <v>0.04029696</v>
+        <v>40.29696</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>3.165</v>
       </c>
       <c r="F347" t="n">
-        <v>0.04023348</v>
+        <v>40.23348</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>3.135</v>
       </c>
       <c r="F348" t="n">
-        <v>0.04024086</v>
+        <v>40.24086</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>3.18</v>
       </c>
       <c r="F349" t="n">
-        <v>0.03992808</v>
+        <v>39.92807999999999</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>3.255</v>
       </c>
       <c r="F350" t="n">
-        <v>0.0401016</v>
+        <v>40.1016</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>3.21</v>
       </c>
       <c r="F351" t="n">
-        <v>0.03998375999999999</v>
+        <v>39.98376</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>3.24</v>
       </c>
       <c r="F352" t="n">
-        <v>0.04005936</v>
+        <v>40.05936000000001</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>3.33</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0397602</v>
+        <v>39.7602</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>3.285</v>
       </c>
       <c r="F354" t="n">
-        <v>0.03939372</v>
+        <v>39.39372</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>3.36</v>
       </c>
       <c r="F355" t="n">
-        <v>0.03975552</v>
+        <v>39.75552</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>3.39</v>
       </c>
       <c r="F356" t="n">
-        <v>0.03954096</v>
+        <v>39.54096</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>3.405</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0392937</v>
+        <v>39.2937</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>3.405</v>
       </c>
       <c r="F358" t="n">
-        <v>0.03940266000000001</v>
+        <v>39.40266000000001</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>3.39</v>
       </c>
       <c r="F359" t="n">
-        <v>0.03933755999999999</v>
+        <v>39.33755999999999</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>3.345</v>
       </c>
       <c r="F360" t="n">
-        <v>0.03908298</v>
+        <v>39.08298000000001</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>3.21</v>
       </c>
       <c r="F361" t="n">
-        <v>0.04013783999999999</v>
+        <v>40.13783999999999</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>3.15</v>
       </c>
       <c r="F362" t="n">
-        <v>0.04008059999999999</v>
+        <v>40.08059999999999</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>3.18</v>
       </c>
       <c r="F363" t="n">
-        <v>0.0400044</v>
+        <v>40.0044</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>3.165</v>
       </c>
       <c r="F364" t="n">
-        <v>0.04017018</v>
+        <v>40.17018</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>3.18</v>
       </c>
       <c r="F365" t="n">
-        <v>0.0396864</v>
+        <v>39.6864</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>3.18</v>
       </c>
       <c r="F366" t="n">
-        <v>0.03969911999999999</v>
+        <v>39.69911999999999</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>3.18</v>
       </c>
       <c r="F367" t="n">
-        <v>0.04002984</v>
+        <v>40.02984</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>3.105</v>
       </c>
       <c r="F368" t="n">
-        <v>0.0401787</v>
+        <v>40.1787</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>3.12</v>
       </c>
       <c r="F369" t="n">
-        <v>0.04032288</v>
+        <v>40.32288</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>3.12</v>
       </c>
       <c r="F370" t="n">
-        <v>0.03991104</v>
+        <v>39.91104</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>3.135</v>
       </c>
       <c r="F371" t="n">
-        <v>0.03993989999999999</v>
+        <v>39.93989999999999</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>3.225</v>
       </c>
       <c r="F372" t="n">
-        <v>0.04013190000000001</v>
+        <v>40.13190000000001</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>3.195</v>
       </c>
       <c r="F373" t="n">
-        <v>0.03951576</v>
+        <v>39.51576</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>3.27</v>
       </c>
       <c r="F374" t="n">
-        <v>0.04024716</v>
+        <v>40.24715999999999</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>3.165</v>
       </c>
       <c r="F375" t="n">
-        <v>0.03906875999999999</v>
+        <v>39.06875999999999</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>3.18</v>
       </c>
       <c r="F376" t="n">
-        <v>0.03939384</v>
+        <v>39.39384</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>3.24</v>
       </c>
       <c r="F377" t="n">
-        <v>0.04021488</v>
+        <v>40.21488</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>3.24</v>
       </c>
       <c r="F378" t="n">
-        <v>0.0402408</v>
+        <v>40.2408</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>3.21</v>
       </c>
       <c r="F379" t="n">
-        <v>0.04024055999999999</v>
+        <v>40.24055999999999</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>3.21</v>
       </c>
       <c r="F380" t="n">
-        <v>0.04040748</v>
+        <v>40.40748</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>3.18</v>
       </c>
       <c r="F381" t="n">
-        <v>0.03943199999999999</v>
+        <v>39.43199999999999</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>3.195</v>
       </c>
       <c r="F382" t="n">
-        <v>0.03940074</v>
+        <v>39.40074</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>3.3</v>
       </c>
       <c r="F383" t="n">
-        <v>0.0403128</v>
+        <v>40.3128</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>3.225</v>
       </c>
       <c r="F384" t="n">
-        <v>0.0391902</v>
+        <v>39.1902</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>3.3</v>
       </c>
       <c r="F385" t="n">
-        <v>0.039666</v>
+        <v>39.666</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>3.3</v>
       </c>
       <c r="F386" t="n">
-        <v>0.03934919999999999</v>
+        <v>39.34919999999999</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>3.285</v>
       </c>
       <c r="F387" t="n">
-        <v>0.04010328</v>
+        <v>40.10328</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>3.24</v>
       </c>
       <c r="F388" t="n">
-        <v>0.03954096</v>
+        <v>39.54096</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>3.255</v>
       </c>
       <c r="F389" t="n">
-        <v>0.03929436000000001</v>
+        <v>39.29436</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>3.3</v>
       </c>
       <c r="F390" t="n">
-        <v>0.0395604</v>
+        <v>39.5604</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>3.33</v>
       </c>
       <c r="F391" t="n">
-        <v>0.03953376</v>
+        <v>39.53376</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>3.315</v>
       </c>
       <c r="F392" t="n">
-        <v>0.03942198</v>
+        <v>39.42198</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>3.27</v>
       </c>
       <c r="F393" t="n">
-        <v>0.0393708</v>
+        <v>39.3708</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>3.36</v>
       </c>
       <c r="F394" t="n">
-        <v>0.03954048</v>
+        <v>39.54048</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>3.315</v>
       </c>
       <c r="F395" t="n">
-        <v>0.03917004</v>
+        <v>39.17004</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>3.285</v>
       </c>
       <c r="F396" t="n">
-        <v>0.03977478</v>
+        <v>39.77478</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>3.21</v>
       </c>
       <c r="F397" t="n">
-        <v>0.039804</v>
+        <v>39.804</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>3.195</v>
       </c>
       <c r="F398" t="n">
-        <v>0.03975858</v>
+        <v>39.75858</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>3.195</v>
       </c>
       <c r="F399" t="n">
-        <v>0.03988637999999999</v>
+        <v>39.88638</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>3.225</v>
       </c>
       <c r="F400" t="n">
-        <v>0.03929340000000001</v>
+        <v>39.29340000000001</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>3.15</v>
       </c>
       <c r="F401" t="n">
-        <v>0.0397656</v>
+        <v>39.7656</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>3.165</v>
       </c>
       <c r="F402" t="n">
-        <v>0.04022082</v>
+        <v>40.22082</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>3.105</v>
       </c>
       <c r="F403" t="n">
-        <v>0.03981852</v>
+        <v>39.81852000000001</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>3.12</v>
       </c>
       <c r="F404" t="n">
-        <v>0.04011072</v>
+        <v>40.11072</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>3.105</v>
       </c>
       <c r="F405" t="n">
-        <v>0.03989304</v>
+        <v>39.89304</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>3.105</v>
       </c>
       <c r="F406" t="n">
-        <v>0.03983094</v>
+        <v>39.83094000000001</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>3.135</v>
       </c>
       <c r="F407" t="n">
-        <v>0.04016562</v>
+        <v>40.16562</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>3.15</v>
       </c>
       <c r="F408" t="n">
-        <v>0.04029479999999999</v>
+        <v>40.2948</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>3.135</v>
       </c>
       <c r="F409" t="n">
-        <v>0.04004022</v>
+        <v>40.04022</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>3.105</v>
       </c>
       <c r="F410" t="n">
-        <v>0.0396198</v>
+        <v>39.6198</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>3.135</v>
       </c>
       <c r="F411" t="n">
-        <v>0.03996498</v>
+        <v>39.96498</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>3.12</v>
       </c>
       <c r="F412" t="n">
-        <v>0.03967392</v>
+        <v>39.67392</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>3.135</v>
       </c>
       <c r="F413" t="n">
-        <v>0.0398772</v>
+        <v>39.8772</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>3.135</v>
       </c>
       <c r="F414" t="n">
-        <v>0.0398772</v>
+        <v>39.8772</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>3.15</v>
       </c>
       <c r="F415" t="n">
-        <v>0.0399672</v>
+        <v>39.9672</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>3.15</v>
       </c>
       <c r="F416" t="n">
-        <v>0.0398286</v>
+        <v>39.8286</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>3.165</v>
       </c>
       <c r="F417" t="n">
-        <v>0.0399423</v>
+        <v>39.9423</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>3.15</v>
       </c>
       <c r="F418" t="n">
-        <v>0.03969</v>
+        <v>39.69</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>3.165</v>
       </c>
       <c r="F419" t="n">
-        <v>0.03979038000000001</v>
+        <v>39.79038000000001</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>3.12</v>
       </c>
       <c r="F420" t="n">
-        <v>0.03934944</v>
+        <v>39.34944</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>3.165</v>
       </c>
       <c r="F421" t="n">
-        <v>0.03995496</v>
+        <v>39.95496</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>3.15</v>
       </c>
       <c r="F422" t="n">
-        <v>0.039816</v>
+        <v>39.816</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>3.18</v>
       </c>
       <c r="F423" t="n">
-        <v>0.04023336</v>
+        <v>40.23336</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>3.165</v>
       </c>
       <c r="F424" t="n">
-        <v>0.04008156</v>
+        <v>40.08156</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>3.15</v>
       </c>
       <c r="F425" t="n">
-        <v>0.039879</v>
+        <v>39.879</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>3.165</v>
       </c>
       <c r="F426" t="n">
-        <v>0.04003092</v>
+        <v>40.03091999999999</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>3.165</v>
       </c>
       <c r="F427" t="n">
-        <v>0.04003092</v>
+        <v>40.03091999999999</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>3.15</v>
       </c>
       <c r="F428" t="n">
-        <v>0.0398286</v>
+        <v>39.8286</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>3.15</v>
       </c>
       <c r="F429" t="n">
-        <v>0.03979079999999999</v>
+        <v>39.79079999999999</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>3.165</v>
       </c>
       <c r="F430" t="n">
-        <v>0.039879</v>
+        <v>39.879</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>3.18</v>
       </c>
       <c r="F431" t="n">
-        <v>0.0399408</v>
+        <v>39.9408</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>3.195</v>
       </c>
       <c r="F432" t="n">
-        <v>0.03991194</v>
+        <v>39.91194</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>3.18</v>
       </c>
       <c r="F433" t="n">
-        <v>0.03963552</v>
+        <v>39.63552</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>3.195</v>
       </c>
       <c r="F434" t="n">
-        <v>0.03977136</v>
+        <v>39.77136</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>3.195</v>
       </c>
       <c r="F435" t="n">
-        <v>0.03972024</v>
+        <v>39.72024</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>3.21</v>
       </c>
       <c r="F436" t="n">
-        <v>0.03984252</v>
+        <v>39.84252</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>3.21</v>
       </c>
       <c r="F437" t="n">
-        <v>0.03975264</v>
+        <v>39.75264</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>3.225</v>
       </c>
       <c r="F438" t="n">
-        <v>0.0398223</v>
+        <v>39.8223</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>3.225</v>
       </c>
       <c r="F439" t="n">
-        <v>0.0397062</v>
+        <v>39.7062</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>3.24</v>
       </c>
       <c r="F440" t="n">
-        <v>0.03974832</v>
+        <v>39.74832</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>3.255</v>
       </c>
       <c r="F441" t="n">
-        <v>0.03982818</v>
+        <v>39.82818</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>3.24</v>
       </c>
       <c r="F442" t="n">
-        <v>0.03948912</v>
+        <v>39.48912</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>3.285</v>
       </c>
       <c r="F443" t="n">
-        <v>0.03977478</v>
+        <v>39.77478</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>3.27</v>
       </c>
       <c r="F444" t="n">
-        <v>0.0395016</v>
+        <v>39.5016</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>3.285</v>
       </c>
       <c r="F445" t="n">
-        <v>0.03959081999999999</v>
+        <v>39.59081999999999</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>3.285</v>
       </c>
       <c r="F446" t="n">
-        <v>0.03945942</v>
+        <v>39.45942</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>3.285</v>
       </c>
       <c r="F447" t="n">
-        <v>0.03936744</v>
+        <v>39.36743999999999</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>3.285</v>
       </c>
       <c r="F448" t="n">
-        <v>0.03927546</v>
+        <v>39.27546</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>3.3</v>
       </c>
       <c r="F449" t="n">
-        <v>0.0393624</v>
+        <v>39.3624</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>3.315</v>
       </c>
       <c r="F450" t="n">
-        <v>0.03943524</v>
+        <v>39.43524</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>3.315</v>
       </c>
       <c r="F451" t="n">
-        <v>0.03932916</v>
+        <v>39.32916</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>3.33</v>
       </c>
       <c r="F452" t="n">
-        <v>0.03944052</v>
+        <v>39.44052</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>3.33</v>
       </c>
       <c r="F453" t="n">
-        <v>0.03938724</v>
+        <v>39.38724</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>3.345</v>
       </c>
       <c r="F454" t="n">
-        <v>0.03949776</v>
+        <v>39.49776</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>3.33</v>
       </c>
       <c r="F455" t="n">
-        <v>0.03925404</v>
+        <v>39.25404</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>3.345</v>
       </c>
       <c r="F456" t="n">
-        <v>0.03936396</v>
+        <v>39.36396000000001</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>3.33</v>
       </c>
       <c r="F457" t="n">
-        <v>0.03912084</v>
+        <v>39.12083999999999</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>3.345</v>
       </c>
       <c r="F458" t="n">
-        <v>0.03919002000000001</v>
+        <v>39.19002000000001</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>3.33</v>
       </c>
       <c r="F459" t="n">
-        <v>0.03890772000000001</v>
+        <v>38.90772</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>3.345</v>
       </c>
       <c r="F460" t="n">
-        <v>0.03900269999999999</v>
+        <v>39.00269999999999</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>3.375</v>
       </c>
       <c r="F461" t="n">
-        <v>0.03925799999999999</v>
+        <v>39.25799999999999</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>3.375</v>
       </c>
       <c r="F462" t="n">
-        <v>0.039177</v>
+        <v>39.177</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>3.375</v>
       </c>
       <c r="F463" t="n">
-        <v>0.03908250000000001</v>
+        <v>39.08250000000001</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>3.285</v>
       </c>
       <c r="F464" t="n">
-        <v>0.03936744</v>
+        <v>39.36743999999999</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>3.345</v>
       </c>
       <c r="F465" t="n">
-        <v>0.03912311999999999</v>
+        <v>39.12311999999999</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9683,7 @@
         <v>3.405</v>
       </c>
       <c r="F466" t="n">
-        <v>0.03907578</v>
+        <v>39.07577999999999</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9703,7 @@
         <v>3.39</v>
       </c>
       <c r="F467" t="n">
-        <v>0.03889008</v>
+        <v>38.89008</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9723,7 @@
         <v>3.42</v>
       </c>
       <c r="F468" t="n">
-        <v>0.03902904</v>
+        <v>39.02904</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9743,7 @@
         <v>3.435</v>
       </c>
       <c r="F469" t="n">
-        <v>0.03904908000000001</v>
+        <v>39.04908</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9763,7 @@
         <v>3.63</v>
       </c>
       <c r="F470" t="n">
-        <v>0.03878292000000001</v>
+        <v>38.78292000000001</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9783,7 @@
         <v>3.675</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0385728</v>
+        <v>38.5728</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9803,7 @@
         <v>3.66</v>
       </c>
       <c r="F472" t="n">
-        <v>0.03837144</v>
+        <v>38.37144</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9823,7 @@
         <v>3.69</v>
       </c>
       <c r="F473" t="n">
-        <v>0.03846456</v>
+        <v>38.46456</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9843,7 @@
         <v>5.94</v>
       </c>
       <c r="F474" t="n">
-        <v>0.03910896000000001</v>
+        <v>39.10896000000001</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9863,7 @@
         <v>7.904999999999999</v>
       </c>
       <c r="F475" t="n">
-        <v>0.01748586</v>
+        <v>17.48586</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9883,7 @@
         <v>8.549999999999999</v>
       </c>
       <c r="F476" t="n">
-        <v>0.01973339999999999</v>
+        <v>19.73339999999999</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9903,7 @@
         <v>9.69</v>
       </c>
       <c r="F477" t="n">
-        <v>0.02201568</v>
+        <v>22.01568</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9923,7 @@
         <v>9.779999999999999</v>
       </c>
       <c r="F478" t="n">
-        <v>0.021516</v>
+        <v>21.516</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9943,7 @@
         <v>9.465</v>
       </c>
       <c r="F479" t="n">
-        <v>0.02078514</v>
+        <v>20.78514</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9963,7 @@
         <v>9.06</v>
       </c>
       <c r="F480" t="n">
-        <v>0.01964208</v>
+        <v>19.64208</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9983,7 @@
         <v>8.94</v>
       </c>
       <c r="F481" t="n">
-        <v>0.01945344</v>
+        <v>19.45344</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10003,7 @@
         <v>8.775</v>
       </c>
       <c r="F482" t="n">
-        <v>0.0197613</v>
+        <v>19.7613</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10023,7 @@
         <v>8.594999999999999</v>
       </c>
       <c r="F483" t="n">
-        <v>0.0194247</v>
+        <v>19.4247</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10043,7 @@
         <v>8.475</v>
       </c>
       <c r="F484" t="n">
-        <v>0.0187806</v>
+        <v>18.7806</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10063,7 @@
         <v>8.34</v>
       </c>
       <c r="F485" t="n">
-        <v>0.01871496</v>
+        <v>18.71496</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10083,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F486" t="n">
-        <v>0.01817868</v>
+        <v>18.17868</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10103,7 @@
         <v>7.92</v>
       </c>
       <c r="F487" t="n">
-        <v>0.0172656</v>
+        <v>17.2656</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10123,7 @@
         <v>7.649999999999999</v>
       </c>
       <c r="F488" t="n">
-        <v>0.0170442</v>
+        <v>17.0442</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10143,7 @@
         <v>7.92</v>
       </c>
       <c r="F489" t="n">
-        <v>0.01748736</v>
+        <v>17.48736</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10163,7 @@
         <v>7.154999999999999</v>
       </c>
       <c r="F490" t="n">
-        <v>0.01619892</v>
+        <v>16.19892</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10183,7 @@
         <v>6.825</v>
       </c>
       <c r="F491" t="n">
-        <v>0.0154245</v>
+        <v>15.4245</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10203,7 @@
         <v>6.315</v>
       </c>
       <c r="F492" t="n">
-        <v>0.01371618</v>
+        <v>13.71618</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10223,7 @@
         <v>6.12</v>
       </c>
       <c r="F493" t="n">
-        <v>0.013464</v>
+        <v>13.464</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10243,7 @@
         <v>5.94</v>
       </c>
       <c r="F494" t="n">
-        <v>0.01321056</v>
+        <v>13.21056</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10263,7 @@
         <v>5.7</v>
       </c>
       <c r="F495" t="n">
-        <v>0.0127224</v>
+        <v>12.7224</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10283,7 @@
         <v>5.55</v>
       </c>
       <c r="F496" t="n">
-        <v>0.0124986</v>
+        <v>12.4986</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10303,7 @@
         <v>5.355</v>
       </c>
       <c r="F497" t="n">
-        <v>0.01212372</v>
+        <v>12.12372</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10323,7 @@
         <v>5.085</v>
       </c>
       <c r="F498" t="n">
-        <v>0.01130904</v>
+        <v>11.30904</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10343,7 @@
         <v>4.965</v>
       </c>
       <c r="F499" t="n">
-        <v>0.0110223</v>
+        <v>11.0223</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10363,7 @@
         <v>4.89</v>
       </c>
       <c r="F500" t="n">
-        <v>0.0110514</v>
+        <v>11.0514</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10383,7 @@
         <v>4.74</v>
       </c>
       <c r="F501" t="n">
-        <v>0.01027632</v>
+        <v>10.27632</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10403,7 @@
         <v>4.425</v>
       </c>
       <c r="F502" t="n">
-        <v>0.0098058</v>
+        <v>9.8058</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10423,7 @@
         <v>4.35</v>
       </c>
       <c r="F503" t="n">
-        <v>0.0098832</v>
+        <v>9.8832</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10443,7 @@
         <v>4.035</v>
       </c>
       <c r="F504" t="n">
-        <v>0.008957700000000001</v>
+        <v>8.957700000000001</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10463,7 @@
         <v>3.69</v>
       </c>
       <c r="F505" t="n">
-        <v>0.008413200000000001</v>
+        <v>8.413200000000002</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10483,7 @@
         <v>3.435</v>
       </c>
       <c r="F506" t="n">
-        <v>0.007502040000000001</v>
+        <v>7.502040000000001</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10503,7 @@
         <v>3.3</v>
       </c>
       <c r="F507" t="n">
-        <v>0.007220400000000001</v>
+        <v>7.220400000000001</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10523,7 @@
         <v>3.3</v>
       </c>
       <c r="F508" t="n">
-        <v>0.0072468</v>
+        <v>7.2468</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10543,7 @@
         <v>3.3</v>
       </c>
       <c r="F509" t="n">
-        <v>0.007444800000000001</v>
+        <v>7.444800000000002</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10563,7 @@
         <v>3.3</v>
       </c>
       <c r="F510" t="n">
-        <v>0.007365600000000001</v>
+        <v>7.365600000000001</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10583,7 @@
         <v>3.255</v>
       </c>
       <c r="F511" t="n">
-        <v>0.00727818</v>
+        <v>7.278180000000001</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10603,7 @@
         <v>3.105</v>
       </c>
       <c r="F512" t="n">
-        <v>0.007066980000000001</v>
+        <v>7.066980000000001</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10623,7 @@
         <v>2.91</v>
       </c>
       <c r="F513" t="n">
-        <v>0.00642528</v>
+        <v>6.42528</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10643,7 @@
         <v>2.67</v>
       </c>
       <c r="F514" t="n">
-        <v>0.006002160000000001</v>
+        <v>6.002160000000001</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10663,7 @@
         <v>2.49</v>
       </c>
       <c r="F515" t="n">
-        <v>0.0056772</v>
+        <v>5.6772</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10683,7 @@
         <v>2.46</v>
       </c>
       <c r="F516" t="n">
-        <v>0.00549072</v>
+        <v>5.49072</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10703,7 @@
         <v>2.49</v>
       </c>
       <c r="F517" t="n">
-        <v>0.0053784</v>
+        <v>5.3784</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10723,7 @@
         <v>2.52</v>
       </c>
       <c r="F518" t="n">
-        <v>0.005554080000000001</v>
+        <v>5.554080000000001</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10743,7 @@
         <v>2.49</v>
       </c>
       <c r="F519" t="n">
-        <v>0.00565728</v>
+        <v>5.65728</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10763,7 @@
         <v>2.415</v>
       </c>
       <c r="F520" t="n">
-        <v>0.00559314</v>
+        <v>5.59314</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10783,7 @@
         <v>2.265</v>
       </c>
       <c r="F521" t="n">
-        <v>0.005127960000000001</v>
+        <v>5.127960000000001</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10803,7 @@
         <v>2.04</v>
       </c>
       <c r="F522" t="n">
-        <v>0.004553280000000001</v>
+        <v>4.553280000000001</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10823,7 @@
         <v>1.845</v>
       </c>
       <c r="F523" t="n">
-        <v>0.00418446</v>
+        <v>4.184460000000001</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10843,7 @@
         <v>1.71</v>
       </c>
       <c r="F524" t="n">
-        <v>0.00391932</v>
+        <v>3.919319999999999</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10863,7 @@
         <v>1.62</v>
       </c>
       <c r="F525" t="n">
-        <v>0.00371304</v>
+        <v>3.71304</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10883,7 @@
         <v>1.56</v>
       </c>
       <c r="F526" t="n">
-        <v>0.003594240000000001</v>
+        <v>3.594240000000001</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10903,7 @@
         <v>1.5</v>
       </c>
       <c r="F527" t="n">
-        <v>0.003444</v>
+        <v>3.444</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10923,7 @@
         <v>1.455</v>
       </c>
       <c r="F528" t="n">
-        <v>0.00336978</v>
+        <v>3.36978</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10943,7 @@
         <v>1.44</v>
       </c>
       <c r="F529" t="n">
-        <v>0.00334656</v>
+        <v>3.34656</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10963,7 @@
         <v>1.38</v>
       </c>
       <c r="F530" t="n">
-        <v>0.00315744</v>
+        <v>3.15744</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10983,7 @@
         <v>1.32</v>
       </c>
       <c r="F531" t="n">
-        <v>0.00297792</v>
+        <v>2.97792</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11003,7 @@
         <v>1.29</v>
       </c>
       <c r="F532" t="n">
-        <v>0.002930880000000001</v>
+        <v>2.930880000000001</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11023,7 @@
         <v>1.245</v>
       </c>
       <c r="F533" t="n">
-        <v>0.00285354</v>
+        <v>2.85354</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11043,7 @@
         <v>1.2</v>
       </c>
       <c r="F534" t="n">
-        <v>0.0027456</v>
+        <v>2.7456</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11063,7 @@
         <v>1.185</v>
       </c>
       <c r="F535" t="n">
-        <v>0.002692320000000001</v>
+        <v>2.692320000000001</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11083,7 @@
         <v>1.125</v>
       </c>
       <c r="F536" t="n">
-        <v>0.0025605</v>
+        <v>2.5605</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11103,7 @@
         <v>1.095</v>
       </c>
       <c r="F537" t="n">
-        <v>0.00254916</v>
+        <v>2.54916</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11123,7 @@
         <v>1.08</v>
       </c>
       <c r="F538" t="n">
-        <v>0.0024624</v>
+        <v>2.4624</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11143,7 @@
         <v>1.035</v>
       </c>
       <c r="F539" t="n">
-        <v>0.00235566</v>
+        <v>2.35566</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11163,7 @@
         <v>1.005</v>
       </c>
       <c r="F540" t="n">
-        <v>0.00232758</v>
+        <v>2.32758</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11183,7 @@
         <v>0.975</v>
       </c>
       <c r="F541" t="n">
-        <v>0.0022503</v>
+        <v>2.2503</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11203,7 @@
         <v>0.945</v>
       </c>
       <c r="F542" t="n">
-        <v>0.00220374</v>
+        <v>2.20374</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11223,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F543" t="n">
-        <v>0.00210816</v>
+        <v>2.10816</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11243,7 @@
         <v>0.885</v>
       </c>
       <c r="F544" t="n">
-        <v>0.00198948</v>
+        <v>1.98948</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11263,7 @@
         <v>0.87</v>
       </c>
       <c r="F545" t="n">
-        <v>0.00194184</v>
+        <v>1.94184</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11283,7 @@
         <v>0.84</v>
       </c>
       <c r="F546" t="n">
-        <v>0.00197232</v>
+        <v>1.97232</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11303,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F547" t="n">
-        <v>0.0018792</v>
+        <v>1.8792</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11323,7 @@
         <v>0.78</v>
       </c>
       <c r="F548" t="n">
-        <v>0.00177528</v>
+        <v>1.77528</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11343,7 @@
         <v>0.78</v>
       </c>
       <c r="F549" t="n">
-        <v>0.00179712</v>
+        <v>1.79712</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11363,7 @@
         <v>0.75</v>
       </c>
       <c r="F550" t="n">
-        <v>0.001746</v>
+        <v>1.746</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11383,7 @@
         <v>0.705</v>
       </c>
       <c r="F551" t="n">
-        <v>0.0016356</v>
+        <v>1.6356</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11403,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="F552" t="n">
-        <v>0.00159528</v>
+        <v>1.59528</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11423,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F553" t="n">
-        <v>0.0015309</v>
+        <v>1.5309</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11443,7 @@
         <v>0.6599999999999999</v>
       </c>
       <c r="F554" t="n">
-        <v>0.001518</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11463,7 @@
         <v>0.615</v>
       </c>
       <c r="F555" t="n">
-        <v>0.00138006</v>
+        <v>1.38006</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11483,7 @@
         <v>0.6</v>
       </c>
       <c r="F556" t="n">
-        <v>0.0013584</v>
+        <v>1.3584</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11503,7 @@
         <v>0.585</v>
       </c>
       <c r="F557" t="n">
-        <v>0.00131976</v>
+        <v>1.31976</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11523,7 @@
         <v>0.54</v>
       </c>
       <c r="F558" t="n">
-        <v>0.00123768</v>
+        <v>1.23768</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11543,7 @@
         <v>0.525</v>
       </c>
       <c r="F559" t="n">
-        <v>0.0011907</v>
+        <v>1.1907</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11563,7 @@
         <v>0.495</v>
       </c>
       <c r="F560" t="n">
-        <v>0.00114444</v>
+        <v>1.14444</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11583,7 @@
         <v>0.495</v>
       </c>
       <c r="F561" t="n">
-        <v>0.0011484</v>
+        <v>1.1484</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11603,7 @@
         <v>0.465</v>
       </c>
       <c r="F562" t="n">
-        <v>0.00106206</v>
+        <v>1.06206</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11623,7 @@
         <v>0.45</v>
       </c>
       <c r="F563" t="n">
-        <v>0.0010134</v>
+        <v>1.0134</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11643,7 @@
         <v>0.42</v>
       </c>
       <c r="F564" t="n">
-        <v>0.0009660000000000001</v>
+        <v>0.9660000000000001</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11663,7 @@
         <v>0.405</v>
       </c>
       <c r="F565" t="n">
-        <v>0.00091854</v>
+        <v>0.91854</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11683,7 @@
         <v>0.405</v>
       </c>
       <c r="F566" t="n">
-        <v>0.00091368</v>
+        <v>0.91368</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11703,7 @@
         <v>0.39</v>
       </c>
       <c r="F567" t="n">
-        <v>0.00090792</v>
+        <v>0.9079199999999999</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11723,7 @@
         <v>0.36</v>
       </c>
       <c r="F568" t="n">
-        <v>0.0008366399999999999</v>
+        <v>0.8366399999999999</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11743,7 @@
         <v>0.345</v>
       </c>
       <c r="F569" t="n">
-        <v>0.00077418</v>
+        <v>0.77418</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11763,7 @@
         <v>0.33</v>
       </c>
       <c r="F570" t="n">
-        <v>0.00074844</v>
+        <v>0.74844</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11783,7 @@
         <v>0.3</v>
       </c>
       <c r="F571" t="n">
-        <v>0.0006923999999999999</v>
+        <v>0.6923999999999999</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11803,7 @@
         <v>0.3</v>
       </c>
       <c r="F572" t="n">
-        <v>0.0006744</v>
+        <v>0.6744</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11823,7 @@
         <v>0.3</v>
       </c>
       <c r="F573" t="n">
-        <v>0.0006984</v>
+        <v>0.6983999999999999</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11843,7 @@
         <v>0.285</v>
       </c>
       <c r="F574" t="n">
-        <v>0.00066234</v>
+        <v>0.6623399999999999</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11863,7 @@
         <v>0.27</v>
       </c>
       <c r="F575" t="n">
-        <v>0.0006188400000000001</v>
+        <v>0.6188400000000001</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11883,7 @@
         <v>0.24</v>
       </c>
       <c r="F576" t="n">
-        <v>0.00054432</v>
+        <v>0.54432</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11903,7 @@
         <v>0.225</v>
       </c>
       <c r="F577" t="n">
-        <v>0.0005184</v>
+        <v>0.5184</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11923,7 @@
         <v>0.21</v>
       </c>
       <c r="F578" t="n">
-        <v>0.00048552</v>
+        <v>0.48552</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11943,7 @@
         <v>0.195</v>
       </c>
       <c r="F579" t="n">
-        <v>0.00046098</v>
+        <v>0.46098</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11963,7 @@
         <v>0.195</v>
       </c>
       <c r="F580" t="n">
-        <v>0.0004469400000000001</v>
+        <v>0.4469400000000001</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11983,7 @@
         <v>0.18</v>
       </c>
       <c r="F581" t="n">
-        <v>0.0004111200000000001</v>
+        <v>0.4111200000000001</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12003,7 @@
         <v>0.18</v>
       </c>
       <c r="F582" t="n">
-        <v>0.0004176</v>
+        <v>0.4176</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12023,7 @@
         <v>0.165</v>
       </c>
       <c r="F583" t="n">
-        <v>0.0003821399999999999</v>
+        <v>0.3821399999999999</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12043,7 @@
         <v>0.15</v>
       </c>
       <c r="F584" t="n">
-        <v>0.0003432</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12063,7 @@
         <v>0.15</v>
       </c>
       <c r="F585" t="n">
-        <v>0.0003438000000000001</v>
+        <v>0.3438000000000001</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12083,7 @@
         <v>0.135</v>
       </c>
       <c r="F586" t="n">
-        <v>0.00031536</v>
+        <v>0.31536</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12103,7 @@
         <v>0.12</v>
       </c>
       <c r="F587" t="n">
-        <v>0.0002774399999999999</v>
+        <v>0.2774399999999999</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12123,7 @@
         <v>0.12</v>
       </c>
       <c r="F588" t="n">
-        <v>0.000276</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12143,7 @@
         <v>0.105</v>
       </c>
       <c r="F589" t="n">
-        <v>0.00024486</v>
+        <v>0.24486</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12163,7 @@
         <v>0.105</v>
       </c>
       <c r="F590" t="n">
-        <v>0.00024234</v>
+        <v>0.24234</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12183,7 @@
         <v>0.09</v>
       </c>
       <c r="F591" t="n">
-        <v>0.00021816</v>
+        <v>0.21816</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12203,7 @@
         <v>0.09</v>
       </c>
       <c r="F592" t="n">
-        <v>0.00021276</v>
+        <v>0.21276</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12223,7 @@
         <v>0.075</v>
       </c>
       <c r="F593" t="n">
-        <v>0.0001776</v>
+        <v>0.1776</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12243,7 @@
         <v>0.06</v>
       </c>
       <c r="F594" t="n">
-        <v>0.00014544</v>
+        <v>0.14544</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12263,7 @@
         <v>0.06</v>
       </c>
       <c r="F595" t="n">
-        <v>0.00014712</v>
+        <v>0.14712</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12283,7 @@
         <v>0.03</v>
       </c>
       <c r="F596" t="n">
-        <v>8.028000000000001e-05</v>
+        <v>0.08028</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12303,7 @@
         <v>0.045</v>
       </c>
       <c r="F597" t="n">
-        <v>0.00011628</v>
+        <v>0.11628</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12323,7 @@
         <v>0.015</v>
       </c>
       <c r="F598" t="n">
-        <v>3.792e-05</v>
+        <v>0.03792</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12343,7 @@
         <v>0.03</v>
       </c>
       <c r="F599" t="n">
-        <v>7.536e-05</v>
+        <v>0.07536</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12363,7 @@
         <v>0.03</v>
       </c>
       <c r="F600" t="n">
-        <v>7.308e-05</v>
+        <v>0.07307999999999999</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12383,7 @@
         <v>0.015</v>
       </c>
       <c r="F601" t="n">
-        <v>3.504e-05</v>
+        <v>0.03504</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12403,7 @@
         <v>0.015</v>
       </c>
       <c r="F602" t="n">
-        <v>3.318e-05</v>
+        <v>0.03317999999999999</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12423,7 @@
         <v>0.015</v>
       </c>
       <c r="F603" t="n">
-        <v>3.126e-05</v>
+        <v>0.03126</v>
       </c>
     </row>
     <row r="604">
@@ -12463,7 +12463,7 @@
         <v>0.015</v>
       </c>
       <c r="F605" t="n">
-        <v>2.778e-05</v>
+        <v>0.02778</v>
       </c>
     </row>
     <row r="606">
